--- a/attendance-files/CEDA/CEDA Attendance.xlsx
+++ b/attendance-files/CEDA/CEDA Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="135">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Anamitra Jaiswal</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>2024PGP086</t>
@@ -442,7 +445,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -485,6 +488,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -807,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -922,8 +930,8 @@
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="19" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -933,6 +941,9 @@
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -1445,11 +1456,11 @@
       <c r="D7" s="35"/>
       <c r="E7" s="36">
         <f t="shared" ref="E7:E92" si="1">COUNTIF(G7:U7,"A")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="36">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:U7,"P")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>34</v>
@@ -1469,10 +1480,18 @@
       <c r="L7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
+      <c r="M7" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
@@ -1502,7 +1521,7 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>35</v>
@@ -1522,10 +1541,18 @@
       <c r="L8" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
+      <c r="M8" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q8" s="39"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
@@ -1555,7 +1582,7 @@
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>34</v>
@@ -1572,13 +1599,21 @@
       <c r="K9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
+      <c r="L9" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q9" s="39"/>
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
@@ -1608,7 +1643,7 @@
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>34</v>
@@ -1625,13 +1660,21 @@
       <c r="K10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
+      <c r="L10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q10" s="39"/>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
@@ -1661,7 +1704,7 @@
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>35</v>
@@ -1678,13 +1721,21 @@
       <c r="K11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="40"/>
+      <c r="L11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
@@ -1710,11 +1761,11 @@
       <c r="D12" s="35"/>
       <c r="E12" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>34</v>
@@ -1731,13 +1782,21 @@
       <c r="K12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
+      <c r="L12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q12" s="39"/>
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
@@ -1767,7 +1826,7 @@
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>34</v>
@@ -1787,10 +1846,18 @@
       <c r="L13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="36"/>
+      <c r="M13" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
@@ -1816,11 +1883,11 @@
       <c r="D14" s="35"/>
       <c r="E14" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>34</v>
@@ -1840,10 +1907,18 @@
       <c r="L14" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
+      <c r="M14" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q14" s="39"/>
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
@@ -1869,11 +1944,11 @@
       <c r="D15" s="35"/>
       <c r="E15" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>34</v>
@@ -1893,10 +1968,18 @@
       <c r="L15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="36"/>
+      <c r="M15" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q15" s="39"/>
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
@@ -1914,10 +1997,10 @@
         <v>10.0</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="36">
@@ -1926,7 +2009,7 @@
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>34</v>
@@ -1946,10 +2029,18 @@
       <c r="L16" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
+      <c r="M16" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q16" s="39"/>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
@@ -1967,10 +2058,10 @@
         <v>11.0</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="36">
@@ -1979,7 +2070,7 @@
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>35</v>
@@ -1999,10 +2090,18 @@
       <c r="L17" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
+      <c r="M17" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q17" s="39"/>
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
@@ -2020,10 +2119,10 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="36">
@@ -2032,7 +2131,7 @@
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>34</v>
@@ -2052,10 +2151,18 @@
       <c r="L18" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
+      <c r="M18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q18" s="39"/>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
@@ -2073,10 +2180,10 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="36">
@@ -2085,7 +2192,7 @@
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>35</v>
@@ -2105,10 +2212,18 @@
       <c r="L19" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
+      <c r="M19" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q19" s="39"/>
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
@@ -2126,19 +2241,19 @@
         <v>14.0</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>34</v>
@@ -2158,10 +2273,18 @@
       <c r="L20" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="M20" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q20" s="39"/>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
@@ -2179,19 +2302,19 @@
         <v>15.0</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>34</v>
@@ -2211,10 +2334,18 @@
       <c r="L21" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="M21" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
@@ -2232,10 +2363,10 @@
         <v>16.0</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="36">
@@ -2244,7 +2375,7 @@
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>34</v>
@@ -2264,10 +2395,18 @@
       <c r="L22" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="36"/>
+      <c r="M22" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q22" s="39"/>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
@@ -2285,19 +2424,19 @@
         <v>17.0</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>35</v>
@@ -2317,10 +2456,18 @@
       <c r="L23" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
+      <c r="M23" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
@@ -2338,19 +2485,19 @@
         <v>18.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>34</v>
@@ -2370,10 +2517,18 @@
       <c r="L24" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
+      <c r="M24" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q24" s="39"/>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
@@ -2391,19 +2546,19 @@
         <v>19.0</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>35</v>
@@ -2423,10 +2578,18 @@
       <c r="L25" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
+      <c r="M25" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
       <c r="S25" s="39"/>
@@ -2444,19 +2607,19 @@
         <v>20.0</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>34</v>
@@ -2476,10 +2639,18 @@
       <c r="L26" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
+      <c r="M26" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
@@ -2497,19 +2668,19 @@
         <v>21.0</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>34</v>
@@ -2529,10 +2700,18 @@
       <c r="L27" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
+      <c r="M27" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="Q27" s="39"/>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
@@ -2550,10 +2729,10 @@
         <v>22.0</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="36">
@@ -2562,7 +2741,7 @@
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>34</v>
@@ -2582,10 +2761,18 @@
       <c r="L28" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
+      <c r="M28" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
@@ -2603,19 +2790,19 @@
         <v>23.0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>35</v>
@@ -2635,10 +2822,18 @@
       <c r="L29" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
+      <c r="M29" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
       <c r="S29" s="39"/>
@@ -2656,19 +2851,19 @@
         <v>24.0</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>34</v>
@@ -2688,10 +2883,18 @@
       <c r="L30" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
+      <c r="M30" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
@@ -2709,10 +2912,10 @@
         <v>25.0</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="36">
@@ -2721,7 +2924,7 @@
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>34</v>
@@ -2741,10 +2944,18 @@
       <c r="L31" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
+      <c r="M31" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q31" s="39"/>
       <c r="R31" s="39"/>
       <c r="S31" s="39"/>
@@ -2762,10 +2973,10 @@
         <v>26.0</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="36">
@@ -2774,7 +2985,7 @@
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>34</v>
@@ -2794,10 +3005,18 @@
       <c r="L32" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="40"/>
+      <c r="M32" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q32" s="39"/>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
@@ -2815,19 +3034,19 @@
         <v>27.0</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>34</v>
@@ -2847,10 +3066,18 @@
       <c r="L33" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="40"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
+      <c r="M33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q33" s="39"/>
       <c r="R33" s="39"/>
       <c r="S33" s="39"/>
@@ -2868,10 +3095,10 @@
         <v>28.0</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="36">
@@ -2880,7 +3107,7 @@
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>34</v>
@@ -2900,10 +3127,18 @@
       <c r="L34" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="36"/>
+      <c r="M34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q34" s="39"/>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
@@ -2921,10 +3156,10 @@
         <v>29.0</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="36">
@@ -2933,7 +3168,7 @@
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>34</v>
@@ -2953,10 +3188,18 @@
       <c r="L35" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
+      <c r="M35" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q35" s="39"/>
       <c r="R35" s="39"/>
       <c r="S35" s="39"/>
@@ -2974,10 +3217,10 @@
         <v>30.0</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="36">
@@ -2986,7 +3229,7 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>34</v>
@@ -3006,10 +3249,18 @@
       <c r="L36" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
+      <c r="M36" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q36" s="39"/>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
@@ -3027,10 +3278,10 @@
         <v>31.0</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="36">
@@ -3039,7 +3290,7 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>34</v>
@@ -3059,10 +3310,18 @@
       <c r="L37" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="40"/>
+      <c r="M37" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
       <c r="S37" s="39"/>
@@ -3080,19 +3339,19 @@
         <v>32.0</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>34</v>
@@ -3112,10 +3371,18 @@
       <c r="L38" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="40"/>
+      <c r="M38" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q38" s="39"/>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
@@ -3133,10 +3400,10 @@
         <v>33.0</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="36">
@@ -3145,7 +3412,7 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>34</v>
@@ -3165,10 +3432,18 @@
       <c r="L39" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M39" s="36"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
+      <c r="M39" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q39" s="39"/>
       <c r="R39" s="39"/>
       <c r="S39" s="39"/>
@@ -3186,10 +3461,10 @@
         <v>34.0</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="36">
@@ -3198,7 +3473,7 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>34</v>
@@ -3218,10 +3493,18 @@
       <c r="L40" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
+      <c r="M40" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q40" s="39"/>
       <c r="R40" s="39"/>
       <c r="S40" s="39"/>
@@ -3239,10 +3522,10 @@
         <v>35.0</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="36">
@@ -3251,7 +3534,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>34</v>
@@ -3271,10 +3554,18 @@
       <c r="L41" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M41" s="36"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
+      <c r="M41" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O41" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q41" s="39"/>
       <c r="R41" s="39"/>
       <c r="S41" s="39"/>
@@ -3292,10 +3583,10 @@
         <v>36.0</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="36">
@@ -3304,7 +3595,7 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>34</v>
@@ -3324,10 +3615,18 @@
       <c r="L42" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
+      <c r="M42" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q42" s="39"/>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
@@ -3345,10 +3644,10 @@
         <v>37.0</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="36">
@@ -3357,7 +3656,7 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>34</v>
@@ -3377,10 +3676,18 @@
       <c r="L43" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
+      <c r="M43" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q43" s="39"/>
       <c r="R43" s="39"/>
       <c r="S43" s="39"/>
@@ -3398,19 +3705,19 @@
         <v>38.0</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>34</v>
@@ -3430,10 +3737,18 @@
       <c r="L44" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
+      <c r="M44" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q44" s="39"/>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
@@ -3451,10 +3766,10 @@
         <v>39.0</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="36">
@@ -3463,7 +3778,7 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>34</v>
@@ -3483,10 +3798,18 @@
       <c r="L45" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
+      <c r="M45" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
       <c r="S45" s="39"/>
@@ -3504,19 +3827,19 @@
         <v>40.0</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>34</v>
@@ -3536,10 +3859,18 @@
       <c r="L46" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M46" s="36"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
+      <c r="M46" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P46" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q46" s="39"/>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
@@ -3557,19 +3888,19 @@
         <v>41.0</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>34</v>
@@ -3589,10 +3920,18 @@
       <c r="L47" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M47" s="40"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
+      <c r="M47" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q47" s="39"/>
       <c r="R47" s="39"/>
       <c r="S47" s="39"/>
@@ -3610,19 +3949,19 @@
         <v>42.0</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>34</v>
@@ -3642,10 +3981,18 @@
       <c r="L48" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
+      <c r="M48" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q48" s="39"/>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
@@ -3663,10 +4010,10 @@
         <v>43.0</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="36">
@@ -3675,7 +4022,7 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>34</v>
@@ -3695,10 +4042,18 @@
       <c r="L49" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="36"/>
+      <c r="M49" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O49" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q49" s="39"/>
       <c r="R49" s="39"/>
       <c r="S49" s="39"/>
@@ -3716,19 +4071,19 @@
         <v>44.0</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>34</v>
@@ -3748,10 +4103,18 @@
       <c r="L50" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="40"/>
+      <c r="M50" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N50" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O50" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q50" s="39"/>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
@@ -3769,10 +4132,10 @@
         <v>45.0</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="36">
@@ -3781,7 +4144,7 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>34</v>
@@ -3801,10 +4164,18 @@
       <c r="L51" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M51" s="36"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
+      <c r="M51" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O51" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q51" s="39"/>
       <c r="R51" s="39"/>
       <c r="S51" s="39"/>
@@ -3822,10 +4193,10 @@
         <v>46.0</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="36">
@@ -3834,7 +4205,7 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>34</v>
@@ -3854,10 +4225,18 @@
       <c r="L52" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M52" s="36"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
+      <c r="M52" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O52" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q52" s="39"/>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
@@ -3875,19 +4254,19 @@
         <v>47.0</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>34</v>
@@ -3907,10 +4286,18 @@
       <c r="L53" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
+      <c r="M53" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
       <c r="S53" s="39"/>
@@ -3928,10 +4315,10 @@
         <v>48.0</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="36">
@@ -3940,7 +4327,7 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>34</v>
@@ -3960,10 +4347,18 @@
       <c r="L54" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M54" s="36"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
+      <c r="M54" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O54" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q54" s="39"/>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
@@ -3981,10 +4376,10 @@
         <v>49.0</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="36">
@@ -3993,7 +4388,7 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>35</v>
@@ -4013,10 +4408,18 @@
       <c r="L55" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
+      <c r="M55" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N55" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O55" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q55" s="39"/>
       <c r="R55" s="39"/>
       <c r="S55" s="39"/>
@@ -4034,10 +4437,10 @@
         <v>50.0</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="36">
@@ -4046,7 +4449,7 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>34</v>
@@ -4066,10 +4469,18 @@
       <c r="L56" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
+      <c r="M56" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N56" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O56" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="Q56" s="39"/>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
@@ -4098,11 +4509,11 @@
         <v>0</v>
       </c>
       <c r="G57" s="36"/>
-      <c r="H57" s="40"/>
+      <c r="H57" s="44"/>
       <c r="I57" s="36"/>
-      <c r="J57" s="40"/>
+      <c r="J57" s="44"/>
       <c r="K57" s="36"/>
-      <c r="L57" s="40"/>
+      <c r="L57" s="44"/>
       <c r="M57" s="36"/>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
@@ -4123,8 +4534,8 @@
       <c r="A58" s="36">
         <v>52.0</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="43"/>
       <c r="E58" s="36">
         <f t="shared" si="1"/>
@@ -4136,9 +4547,9 @@
       </c>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="40"/>
+      <c r="I58" s="44"/>
       <c r="J58" s="36"/>
-      <c r="K58" s="40"/>
+      <c r="K58" s="44"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
@@ -4160,8 +4571,8 @@
       <c r="A59" s="36">
         <v>53.0</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="43"/>
       <c r="E59" s="36">
         <f t="shared" si="1"/>
@@ -4171,13 +4582,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G59" s="40"/>
+      <c r="G59" s="44"/>
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
-      <c r="M59" s="40"/>
+      <c r="M59" s="44"/>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="36"/>
@@ -4197,8 +4608,8 @@
       <c r="A60" s="36">
         <v>54.0</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="43"/>
       <c r="E60" s="36">
         <f t="shared" si="1"/>
@@ -4208,12 +4619,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G60" s="40"/>
+      <c r="G60" s="44"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
-      <c r="L60" s="40"/>
+      <c r="L60" s="44"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
       <c r="O60" s="36"/>
@@ -4234,8 +4645,8 @@
       <c r="A61" s="36">
         <v>55.0</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="43"/>
       <c r="E61" s="36">
         <f t="shared" si="1"/>
@@ -4247,9 +4658,9 @@
       </c>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="40"/>
+      <c r="I61" s="44"/>
       <c r="J61" s="36"/>
-      <c r="K61" s="40"/>
+      <c r="K61" s="44"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
@@ -4271,8 +4682,8 @@
       <c r="A62" s="36">
         <v>56.0</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="43"/>
       <c r="E62" s="36">
         <f t="shared" si="1"/>
@@ -4282,8 +4693,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
@@ -4308,8 +4719,8 @@
       <c r="A63" s="36">
         <v>57.0</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="43"/>
       <c r="E63" s="36">
         <f t="shared" si="1"/>
@@ -4325,7 +4736,7 @@
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
-      <c r="M63" s="40"/>
+      <c r="M63" s="44"/>
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
@@ -4345,8 +4756,8 @@
       <c r="A64" s="36">
         <v>58.0</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="43"/>
       <c r="E64" s="36">
         <f t="shared" si="1"/>
@@ -4356,10 +4767,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G64" s="40"/>
+      <c r="G64" s="44"/>
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
-      <c r="J64" s="40"/>
+      <c r="J64" s="44"/>
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
@@ -4382,8 +4793,8 @@
       <c r="A65" s="36">
         <v>59.0</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="43"/>
       <c r="E65" s="36">
         <f t="shared" si="1"/>
@@ -4395,8 +4806,8 @@
       </c>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
       <c r="K65" s="36"/>
       <c r="L65" s="36"/>
       <c r="M65" s="36"/>
@@ -4419,8 +4830,8 @@
       <c r="A66" s="36">
         <v>60.0</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="43"/>
       <c r="E66" s="36">
         <f t="shared" si="1"/>
@@ -4435,11 +4846,11 @@
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
-      <c r="L66" s="40"/>
+      <c r="L66" s="44"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
       <c r="O66" s="36"/>
-      <c r="P66" s="40"/>
+      <c r="P66" s="44"/>
       <c r="Q66" s="39"/>
       <c r="R66" s="39"/>
       <c r="S66" s="39"/>
@@ -4456,8 +4867,8 @@
       <c r="A67" s="36">
         <v>61.0</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="43"/>
       <c r="E67" s="36">
         <f t="shared" si="1"/>
@@ -4493,8 +4904,8 @@
       <c r="A68" s="36">
         <v>62.0</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="43"/>
       <c r="E68" s="36">
         <f t="shared" si="1"/>
@@ -4530,8 +4941,8 @@
       <c r="A69" s="36">
         <v>63.0</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="43"/>
       <c r="E69" s="36">
         <f t="shared" si="1"/>
@@ -4547,7 +4958,7 @@
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="36"/>
-      <c r="M69" s="40"/>
+      <c r="M69" s="44"/>
       <c r="N69" s="36"/>
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
@@ -4567,8 +4978,8 @@
       <c r="A70" s="36">
         <v>64.0</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="43"/>
       <c r="E70" s="36">
         <f t="shared" si="1"/>
@@ -4580,7 +4991,7 @@
       </c>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="40"/>
+      <c r="I70" s="44"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="36"/>
@@ -4604,8 +5015,8 @@
       <c r="A71" s="36">
         <v>65.0</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="43"/>
       <c r="E71" s="36">
         <f t="shared" si="1"/>
@@ -4615,14 +5026,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71" s="40"/>
+      <c r="G71" s="44"/>
       <c r="H71" s="36"/>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="36"/>
       <c r="M71" s="36"/>
-      <c r="N71" s="40"/>
+      <c r="N71" s="44"/>
       <c r="O71" s="36"/>
       <c r="P71" s="36"/>
       <c r="Q71" s="39"/>
@@ -4641,8 +5052,8 @@
       <c r="A72" s="36">
         <v>66.0</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="46"/>
       <c r="D72" s="43"/>
       <c r="E72" s="36">
         <f t="shared" si="1"/>
@@ -4658,8 +5069,8 @@
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="36"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
       <c r="O72" s="36"/>
       <c r="P72" s="36"/>
       <c r="Q72" s="39"/>
@@ -4678,8 +5089,8 @@
       <c r="A73" s="36">
         <v>67.0</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="46"/>
       <c r="D73" s="43"/>
       <c r="E73" s="36">
         <f t="shared" si="1"/>
@@ -4692,9 +5103,9 @@
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
-      <c r="J73" s="40"/>
+      <c r="J73" s="44"/>
       <c r="K73" s="36"/>
-      <c r="L73" s="40"/>
+      <c r="L73" s="44"/>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
@@ -4715,8 +5126,8 @@
       <c r="A74" s="36">
         <v>68.0</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="43"/>
       <c r="E74" s="36">
         <f t="shared" si="1"/>
@@ -4752,8 +5163,8 @@
       <c r="A75" s="36">
         <v>69.0</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="43"/>
       <c r="E75" s="36">
         <f t="shared" si="1"/>
@@ -4767,9 +5178,9 @@
       <c r="H75" s="36"/>
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
-      <c r="K75" s="40"/>
+      <c r="K75" s="44"/>
       <c r="L75" s="36"/>
-      <c r="M75" s="40"/>
+      <c r="M75" s="44"/>
       <c r="N75" s="36"/>
       <c r="O75" s="36"/>
       <c r="P75" s="36"/>
@@ -4789,8 +5200,8 @@
       <c r="A76" s="36">
         <v>70.0</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="43"/>
       <c r="E76" s="36">
         <f t="shared" si="1"/>
@@ -4801,13 +5212,13 @@
         <v>0</v>
       </c>
       <c r="G76" s="36"/>
-      <c r="H76" s="40"/>
+      <c r="H76" s="44"/>
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="36"/>
       <c r="M76" s="36"/>
-      <c r="N76" s="40"/>
+      <c r="N76" s="44"/>
       <c r="O76" s="36"/>
       <c r="P76" s="36"/>
       <c r="Q76" s="39"/>
@@ -4826,8 +5237,8 @@
       <c r="A77" s="36">
         <v>71.0</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="43"/>
       <c r="E77" s="36">
         <f t="shared" si="1"/>
@@ -4839,14 +5250,14 @@
       </c>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
       <c r="K77" s="36"/>
       <c r="L77" s="36"/>
       <c r="M77" s="36"/>
       <c r="N77" s="36"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
       <c r="S77" s="39"/>
@@ -4863,8 +5274,8 @@
       <c r="A78" s="36">
         <v>72.0</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="43"/>
       <c r="E78" s="36">
         <f t="shared" si="1"/>
@@ -4874,14 +5285,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="40"/>
+      <c r="G78" s="44"/>
       <c r="H78" s="36"/>
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="36"/>
       <c r="M78" s="36"/>
-      <c r="N78" s="40"/>
+      <c r="N78" s="44"/>
       <c r="O78" s="36"/>
       <c r="P78" s="36"/>
       <c r="Q78" s="39"/>
@@ -4900,8 +5311,8 @@
       <c r="A79" s="36">
         <v>73.0</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="43"/>
       <c r="E79" s="36">
         <f t="shared" si="1"/>
@@ -4912,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="36"/>
-      <c r="H79" s="40"/>
+      <c r="H79" s="44"/>
       <c r="I79" s="36"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
@@ -4920,7 +5331,7 @@
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
-      <c r="P79" s="40"/>
+      <c r="P79" s="44"/>
       <c r="Q79" s="39"/>
       <c r="R79" s="39"/>
       <c r="S79" s="39"/>
@@ -4937,8 +5348,8 @@
       <c r="A80" s="36">
         <v>74.0</v>
       </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="46"/>
       <c r="D80" s="43"/>
       <c r="E80" s="36">
         <f t="shared" si="1"/>
@@ -4953,8 +5364,8 @@
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
       <c r="N80" s="36"/>
       <c r="O80" s="36"/>
       <c r="P80" s="36"/>
@@ -4974,8 +5385,8 @@
       <c r="A81" s="36">
         <v>75.0</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="43"/>
       <c r="E81" s="36">
         <f t="shared" si="1"/>
@@ -4985,8 +5396,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
@@ -4994,7 +5405,7 @@
       <c r="M81" s="36"/>
       <c r="N81" s="36"/>
       <c r="O81" s="36"/>
-      <c r="P81" s="40"/>
+      <c r="P81" s="44"/>
       <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
       <c r="S81" s="39"/>
@@ -5011,8 +5422,8 @@
       <c r="A82" s="36">
         <v>76.0</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="43"/>
       <c r="E82" s="36">
         <f t="shared" si="1"/>
@@ -5025,8 +5436,8 @@
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
       <c r="I82" s="36"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
@@ -5048,8 +5459,8 @@
       <c r="A83" s="36">
         <v>77.0</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="46"/>
       <c r="D83" s="43"/>
       <c r="E83" s="36">
         <f t="shared" si="1"/>
@@ -5062,9 +5473,9 @@
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
       <c r="I83" s="36"/>
-      <c r="J83" s="40"/>
+      <c r="J83" s="44"/>
       <c r="K83" s="36"/>
-      <c r="L83" s="40"/>
+      <c r="L83" s="44"/>
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
       <c r="O83" s="36"/>
@@ -5085,8 +5496,8 @@
       <c r="A84" s="36">
         <v>78.0</v>
       </c>
-      <c r="B84" s="44"/>
-      <c r="C84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="46"/>
       <c r="D84" s="43"/>
       <c r="E84" s="36">
         <f t="shared" si="1"/>
@@ -5101,8 +5512,8 @@
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
       <c r="N84" s="36"/>
       <c r="O84" s="36"/>
       <c r="P84" s="36"/>
@@ -5122,8 +5533,8 @@
       <c r="A85" s="36">
         <v>79.0</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="45"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="46"/>
       <c r="D85" s="43"/>
       <c r="E85" s="36">
         <f t="shared" si="1"/>
@@ -5135,12 +5546,12 @@
       </c>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="40"/>
+      <c r="I85" s="44"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
-      <c r="N85" s="40"/>
+      <c r="N85" s="44"/>
       <c r="O85" s="36"/>
       <c r="P85" s="36"/>
       <c r="Q85" s="39"/>
@@ -5159,8 +5570,8 @@
       <c r="A86" s="36">
         <v>80.0</v>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="46"/>
       <c r="D86" s="43"/>
       <c r="E86" s="36">
         <f t="shared" si="1"/>
@@ -5175,9 +5586,9 @@
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
-      <c r="L86" s="40"/>
+      <c r="L86" s="44"/>
       <c r="M86" s="36"/>
-      <c r="N86" s="40"/>
+      <c r="N86" s="44"/>
       <c r="O86" s="36"/>
       <c r="P86" s="36"/>
       <c r="Q86" s="39"/>
@@ -5415,27 +5826,27 @@
       <c r="AA92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="46"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="46"/>
-      <c r="R93" s="46"/>
-      <c r="S93" s="46"/>
-      <c r="T93" s="46"/>
-      <c r="U93" s="46"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="48"/>
+      <c r="L93" s="48"/>
+      <c r="M93" s="48"/>
+      <c r="N93" s="48"/>
+      <c r="O93" s="48"/>
+      <c r="P93" s="48"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>

--- a/attendance-files/CEDA/CEDA Attendance.xlsx
+++ b/attendance-files/CEDA/CEDA Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="135">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -815,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -926,6 +926,9 @@
     </xf>
     <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1460,7 +1463,7 @@
       </c>
       <c r="F7" s="36">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:U7,"P")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>34</v>
@@ -1492,11 +1495,17 @@
       <c r="P7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
+      <c r="Q7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
       <c r="V7" s="19"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
@@ -1517,11 +1526,11 @@
       <c r="D8" s="35"/>
       <c r="E8" s="36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>35</v>
@@ -1553,11 +1562,17 @@
       <c r="P8" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
+      <c r="Q8" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
       <c r="V8" s="19"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -1582,7 +1597,7 @@
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>34</v>
@@ -1599,7 +1614,7 @@
       <c r="K9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="41" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="37" t="s">
@@ -1614,11 +1629,17 @@
       <c r="P9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
+      <c r="Q9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
       <c r="V9" s="19"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -1639,11 +1660,11 @@
       <c r="D10" s="35"/>
       <c r="E10" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>34</v>
@@ -1660,7 +1681,7 @@
       <c r="K10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="41" t="s">
         <v>34</v>
       </c>
       <c r="M10" s="37" t="s">
@@ -1675,11 +1696,17 @@
       <c r="P10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
+      <c r="Q10" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
       <c r="V10" s="19"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -1700,11 +1727,11 @@
       <c r="D11" s="35"/>
       <c r="E11" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>35</v>
@@ -1721,7 +1748,7 @@
       <c r="K11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="41" t="s">
         <v>34</v>
       </c>
       <c r="M11" s="37" t="s">
@@ -1736,11 +1763,17 @@
       <c r="P11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
+      <c r="Q11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
       <c r="V11" s="19"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -1765,7 +1798,7 @@
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>34</v>
@@ -1782,7 +1815,7 @@
       <c r="K12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="41" t="s">
         <v>34</v>
       </c>
       <c r="M12" s="37" t="s">
@@ -1797,11 +1830,17 @@
       <c r="P12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
+      <c r="Q12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
       <c r="V12" s="19"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -1826,7 +1865,7 @@
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>34</v>
@@ -1858,11 +1897,17 @@
       <c r="P13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
+      <c r="Q13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
       <c r="V13" s="19"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -1883,11 +1928,11 @@
       <c r="D14" s="35"/>
       <c r="E14" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>34</v>
@@ -1919,11 +1964,17 @@
       <c r="P14" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
+      <c r="Q14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
       <c r="V14" s="19"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -1944,11 +1995,11 @@
       <c r="D15" s="35"/>
       <c r="E15" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>34</v>
@@ -1980,11 +2031,17 @@
       <c r="P15" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
+      <c r="Q15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
       <c r="V15" s="19"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -2005,11 +2062,11 @@
       <c r="D16" s="35"/>
       <c r="E16" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>34</v>
@@ -2041,11 +2098,17 @@
       <c r="P16" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
+      <c r="Q16" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
       <c r="V16" s="19"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -2066,11 +2129,11 @@
       <c r="D17" s="35"/>
       <c r="E17" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>35</v>
@@ -2102,11 +2165,17 @@
       <c r="P17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
+      <c r="Q17" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
       <c r="V17" s="19"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
@@ -2127,11 +2196,11 @@
       <c r="D18" s="35"/>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>34</v>
@@ -2163,11 +2232,17 @@
       <c r="P18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
+      <c r="Q18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
       <c r="V18" s="19"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -2188,11 +2263,11 @@
       <c r="D19" s="35"/>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>35</v>
@@ -2224,11 +2299,17 @@
       <c r="P19" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
+      <c r="Q19" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
       <c r="V19" s="19"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -2249,11 +2330,11 @@
       <c r="D20" s="35"/>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>34</v>
@@ -2285,11 +2366,17 @@
       <c r="P20" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
+      <c r="Q20" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
       <c r="V20" s="19"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -2310,11 +2397,11 @@
       <c r="D21" s="35"/>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>34</v>
@@ -2346,11 +2433,17 @@
       <c r="P21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
+      <c r="Q21" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
       <c r="V21" s="19"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -2371,11 +2464,11 @@
       <c r="D22" s="35"/>
       <c r="E22" s="36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>34</v>
@@ -2407,11 +2500,17 @@
       <c r="P22" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
+      <c r="Q22" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
       <c r="V22" s="19"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -2432,11 +2531,11 @@
       <c r="D23" s="35"/>
       <c r="E23" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>35</v>
@@ -2468,11 +2567,17 @@
       <c r="P23" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
+      <c r="Q23" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
       <c r="V23" s="19"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -2493,11 +2598,11 @@
       <c r="D24" s="35"/>
       <c r="E24" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>34</v>
@@ -2529,11 +2634,17 @@
       <c r="P24" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
+      <c r="Q24" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
       <c r="V24" s="19"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -2558,7 +2669,7 @@
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>35</v>
@@ -2590,11 +2701,17 @@
       <c r="P25" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
+      <c r="Q25" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
       <c r="V25" s="19"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -2615,11 +2732,11 @@
       <c r="D26" s="35"/>
       <c r="E26" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>34</v>
@@ -2651,11 +2768,17 @@
       <c r="P26" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
+      <c r="Q26" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
       <c r="V26" s="19"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -2680,7 +2803,7 @@
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>34</v>
@@ -2712,11 +2835,17 @@
       <c r="P27" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
+      <c r="Q27" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
       <c r="V27" s="19"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
@@ -2737,11 +2866,11 @@
       <c r="D28" s="35"/>
       <c r="E28" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>34</v>
@@ -2773,11 +2902,17 @@
       <c r="P28" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
+      <c r="Q28" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
       <c r="V28" s="19"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
@@ -2798,11 +2933,11 @@
       <c r="D29" s="35"/>
       <c r="E29" s="36">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>35</v>
@@ -2834,11 +2969,17 @@
       <c r="P29" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
+      <c r="Q29" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
       <c r="V29" s="19"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
@@ -2859,11 +3000,11 @@
       <c r="D30" s="35"/>
       <c r="E30" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>34</v>
@@ -2895,11 +3036,17 @@
       <c r="P30" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
+      <c r="Q30" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
       <c r="V30" s="19"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
@@ -2924,7 +3071,7 @@
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>34</v>
@@ -2956,11 +3103,17 @@
       <c r="P31" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
+      <c r="Q31" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
       <c r="V31" s="19"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
@@ -2981,11 +3134,11 @@
       <c r="D32" s="35"/>
       <c r="E32" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>34</v>
@@ -3017,11 +3170,17 @@
       <c r="P32" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
+      <c r="Q32" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
       <c r="V32" s="19"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
@@ -3042,11 +3201,11 @@
       <c r="D33" s="35"/>
       <c r="E33" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>34</v>
@@ -3078,11 +3237,17 @@
       <c r="P33" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
+      <c r="Q33" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
       <c r="V33" s="19"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
@@ -3107,7 +3272,7 @@
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>34</v>
@@ -3139,11 +3304,17 @@
       <c r="P34" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
+      <c r="Q34" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
       <c r="V34" s="19"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
@@ -3164,11 +3335,11 @@
       <c r="D35" s="35"/>
       <c r="E35" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>34</v>
@@ -3200,11 +3371,17 @@
       <c r="P35" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
+      <c r="Q35" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R35" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
       <c r="V35" s="19"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
@@ -3229,7 +3406,7 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>34</v>
@@ -3261,11 +3438,17 @@
       <c r="P36" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
+      <c r="Q36" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R36" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
       <c r="V36" s="19"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
@@ -3286,11 +3469,11 @@
       <c r="D37" s="35"/>
       <c r="E37" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>34</v>
@@ -3322,11 +3505,17 @@
       <c r="P37" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
+      <c r="Q37" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
       <c r="V37" s="19"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
@@ -3347,11 +3536,11 @@
       <c r="D38" s="35"/>
       <c r="E38" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>34</v>
@@ -3383,11 +3572,17 @@
       <c r="P38" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
+      <c r="Q38" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
       <c r="V38" s="19"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
@@ -3408,11 +3603,11 @@
       <c r="D39" s="35"/>
       <c r="E39" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>34</v>
@@ -3444,11 +3639,17 @@
       <c r="P39" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
+      <c r="Q39" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
       <c r="V39" s="19"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
@@ -3469,11 +3670,11 @@
       <c r="D40" s="35"/>
       <c r="E40" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>34</v>
@@ -3505,11 +3706,17 @@
       <c r="P40" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
+      <c r="Q40" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
       <c r="V40" s="19"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
@@ -3530,11 +3737,11 @@
       <c r="D41" s="35"/>
       <c r="E41" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>34</v>
@@ -3566,11 +3773,17 @@
       <c r="P41" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
+      <c r="Q41" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R41" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S41" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
       <c r="V41" s="19"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
@@ -3591,11 +3804,11 @@
       <c r="D42" s="35"/>
       <c r="E42" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>34</v>
@@ -3627,11 +3840,17 @@
       <c r="P42" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
+      <c r="Q42" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
       <c r="V42" s="19"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
@@ -3652,11 +3871,11 @@
       <c r="D43" s="35"/>
       <c r="E43" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>34</v>
@@ -3688,11 +3907,17 @@
       <c r="P43" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
+      <c r="Q43" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R43" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
       <c r="V43" s="19"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
@@ -3713,11 +3938,11 @@
       <c r="D44" s="35"/>
       <c r="E44" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>34</v>
@@ -3749,11 +3974,17 @@
       <c r="P44" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
+      <c r="Q44" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R44" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
       <c r="V44" s="19"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
@@ -3774,11 +4005,11 @@
       <c r="D45" s="35"/>
       <c r="E45" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>34</v>
@@ -3810,11 +4041,17 @@
       <c r="P45" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
+      <c r="Q45" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R45" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
       <c r="V45" s="19"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
@@ -3839,7 +4076,7 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>34</v>
@@ -3871,11 +4108,17 @@
       <c r="P46" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
+      <c r="Q46" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R46" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
       <c r="V46" s="19"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
@@ -3896,11 +4139,11 @@
       <c r="D47" s="35"/>
       <c r="E47" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>34</v>
@@ -3932,11 +4175,17 @@
       <c r="P47" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
+      <c r="Q47" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R47" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
       <c r="V47" s="19"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
@@ -3957,11 +4206,11 @@
       <c r="D48" s="35"/>
       <c r="E48" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>34</v>
@@ -3993,11 +4242,17 @@
       <c r="P48" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
+      <c r="Q48" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R48" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S48" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
       <c r="V48" s="19"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
@@ -4018,11 +4273,11 @@
       <c r="D49" s="35"/>
       <c r="E49" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>34</v>
@@ -4054,11 +4309,17 @@
       <c r="P49" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
+      <c r="Q49" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
       <c r="V49" s="19"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
@@ -4083,7 +4344,7 @@
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>34</v>
@@ -4115,11 +4376,17 @@
       <c r="P50" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
+      <c r="Q50" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S50" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
       <c r="V50" s="19"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
@@ -4140,11 +4407,11 @@
       <c r="D51" s="35"/>
       <c r="E51" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>34</v>
@@ -4176,11 +4443,17 @@
       <c r="P51" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
+      <c r="Q51" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R51" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S51" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
       <c r="V51" s="19"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
@@ -4201,11 +4474,11 @@
       <c r="D52" s="35"/>
       <c r="E52" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>34</v>
@@ -4237,11 +4510,17 @@
       <c r="P52" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
+      <c r="Q52" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R52" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
       <c r="V52" s="19"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
@@ -4262,11 +4541,11 @@
       <c r="D53" s="35"/>
       <c r="E53" s="36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>34</v>
@@ -4298,11 +4577,17 @@
       <c r="P53" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
+      <c r="Q53" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S53" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
       <c r="V53" s="19"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
@@ -4323,11 +4608,11 @@
       <c r="D54" s="35"/>
       <c r="E54" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>34</v>
@@ -4359,11 +4644,17 @@
       <c r="P54" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
+      <c r="Q54" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R54" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
       <c r="V54" s="19"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
@@ -4384,11 +4675,11 @@
       <c r="D55" s="35"/>
       <c r="E55" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>35</v>
@@ -4420,11 +4711,17 @@
       <c r="P55" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
+      <c r="Q55" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
       <c r="V55" s="19"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
@@ -4445,11 +4742,11 @@
       <c r="D56" s="35"/>
       <c r="E56" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>34</v>
@@ -4481,11 +4778,17 @@
       <c r="P56" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
+      <c r="Q56" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R56" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
       <c r="V56" s="19"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
@@ -4497,9 +4800,9 @@
       <c r="A57" s="36">
         <v>51.0</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="43"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4509,20 +4812,20 @@
         <v>0</v>
       </c>
       <c r="G57" s="36"/>
-      <c r="H57" s="44"/>
+      <c r="H57" s="45"/>
       <c r="I57" s="36"/>
-      <c r="J57" s="44"/>
+      <c r="J57" s="45"/>
       <c r="K57" s="36"/>
-      <c r="L57" s="44"/>
+      <c r="L57" s="45"/>
       <c r="M57" s="36"/>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="36"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
       <c r="V57" s="19"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
@@ -4534,9 +4837,9 @@
       <c r="A58" s="36">
         <v>52.0</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="43"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4547,19 +4850,19 @@
       </c>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="44"/>
+      <c r="I58" s="45"/>
       <c r="J58" s="36"/>
-      <c r="K58" s="44"/>
+      <c r="K58" s="45"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
       <c r="O58" s="36"/>
       <c r="P58" s="36"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
       <c r="V58" s="19"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
@@ -4571,9 +4874,9 @@
       <c r="A59" s="36">
         <v>53.0</v>
       </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="43"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4582,21 +4885,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G59" s="44"/>
+      <c r="G59" s="45"/>
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
-      <c r="M59" s="44"/>
+      <c r="M59" s="45"/>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
       <c r="P59" s="36"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
       <c r="V59" s="19"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
@@ -4608,9 +4911,9 @@
       <c r="A60" s="36">
         <v>54.0</v>
       </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="43"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4619,21 +4922,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G60" s="44"/>
+      <c r="G60" s="45"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
-      <c r="L60" s="44"/>
+      <c r="L60" s="45"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
       <c r="O60" s="36"/>
       <c r="P60" s="36"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
       <c r="V60" s="19"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
@@ -4645,9 +4948,9 @@
       <c r="A61" s="36">
         <v>55.0</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="43"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4658,19 +4961,19 @@
       </c>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="44"/>
+      <c r="I61" s="45"/>
       <c r="J61" s="36"/>
-      <c r="K61" s="44"/>
+      <c r="K61" s="45"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
       <c r="O61" s="36"/>
       <c r="P61" s="36"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
       <c r="V61" s="19"/>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
@@ -4682,9 +4985,9 @@
       <c r="A62" s="36">
         <v>56.0</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="43"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4693,8 +4996,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
@@ -4703,11 +5006,11 @@
       <c r="N62" s="36"/>
       <c r="O62" s="36"/>
       <c r="P62" s="36"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
       <c r="V62" s="19"/>
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
@@ -4719,9 +5022,9 @@
       <c r="A63" s="36">
         <v>57.0</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="43"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4736,15 +5039,15 @@
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
-      <c r="M63" s="44"/>
+      <c r="M63" s="45"/>
       <c r="N63" s="36"/>
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
       <c r="V63" s="19"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
@@ -4756,9 +5059,9 @@
       <c r="A64" s="36">
         <v>58.0</v>
       </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="43"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4767,21 +5070,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G64" s="44"/>
+      <c r="G64" s="45"/>
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
-      <c r="J64" s="44"/>
+      <c r="J64" s="45"/>
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
       <c r="O64" s="36"/>
       <c r="P64" s="36"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
       <c r="V64" s="19"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
@@ -4793,9 +5096,9 @@
       <c r="A65" s="36">
         <v>59.0</v>
       </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="43"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4806,19 +5109,19 @@
       </c>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
       <c r="K65" s="36"/>
       <c r="L65" s="36"/>
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
       <c r="V65" s="19"/>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
@@ -4830,9 +5133,9 @@
       <c r="A66" s="36">
         <v>60.0</v>
       </c>
-      <c r="B66" s="45"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="43"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4846,16 +5149,16 @@
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
-      <c r="L66" s="44"/>
+      <c r="L66" s="45"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
       <c r="O66" s="36"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
       <c r="V66" s="19"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
@@ -4867,9 +5170,9 @@
       <c r="A67" s="36">
         <v>61.0</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="43"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4888,11 +5191,11 @@
       <c r="N67" s="36"/>
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
       <c r="V67" s="19"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
@@ -4904,9 +5207,9 @@
       <c r="A68" s="36">
         <v>62.0</v>
       </c>
-      <c r="B68" s="45"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="43"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="44"/>
       <c r="E68" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4925,11 +5228,11 @@
       <c r="N68" s="36"/>
       <c r="O68" s="36"/>
       <c r="P68" s="36"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
       <c r="V68" s="19"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
@@ -4941,9 +5244,9 @@
       <c r="A69" s="36">
         <v>63.0</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="43"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="44"/>
       <c r="E69" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4958,15 +5261,15 @@
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="36"/>
-      <c r="M69" s="44"/>
+      <c r="M69" s="45"/>
       <c r="N69" s="36"/>
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
       <c r="V69" s="19"/>
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
@@ -4978,9 +5281,9 @@
       <c r="A70" s="36">
         <v>64.0</v>
       </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="43"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4991,7 +5294,7 @@
       </c>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="44"/>
+      <c r="I70" s="45"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="36"/>
@@ -4999,11 +5302,11 @@
       <c r="N70" s="36"/>
       <c r="O70" s="36"/>
       <c r="P70" s="36"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
       <c r="V70" s="19"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
@@ -5015,9 +5318,9 @@
       <c r="A71" s="36">
         <v>65.0</v>
       </c>
-      <c r="B71" s="45"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="43"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="44"/>
       <c r="E71" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5026,21 +5329,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71" s="44"/>
+      <c r="G71" s="45"/>
       <c r="H71" s="36"/>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="36"/>
       <c r="M71" s="36"/>
-      <c r="N71" s="44"/>
+      <c r="N71" s="45"/>
       <c r="O71" s="36"/>
       <c r="P71" s="36"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
       <c r="V71" s="19"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
@@ -5052,9 +5355,9 @@
       <c r="A72" s="36">
         <v>66.0</v>
       </c>
-      <c r="B72" s="45"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="43"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="44"/>
       <c r="E72" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5069,15 +5372,15 @@
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="36"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="45"/>
       <c r="O72" s="36"/>
       <c r="P72" s="36"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
       <c r="V72" s="19"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
@@ -5089,9 +5392,9 @@
       <c r="A73" s="36">
         <v>67.0</v>
       </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="43"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="44"/>
       <c r="E73" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5103,18 +5406,18 @@
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
-      <c r="J73" s="44"/>
+      <c r="J73" s="45"/>
       <c r="K73" s="36"/>
-      <c r="L73" s="44"/>
+      <c r="L73" s="45"/>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
       <c r="P73" s="36"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
       <c r="V73" s="19"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
@@ -5126,9 +5429,9 @@
       <c r="A74" s="36">
         <v>68.0</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="43"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5147,11 +5450,11 @@
       <c r="N74" s="36"/>
       <c r="O74" s="36"/>
       <c r="P74" s="36"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
       <c r="V74" s="19"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
@@ -5163,9 +5466,9 @@
       <c r="A75" s="36">
         <v>69.0</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="43"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="44"/>
       <c r="E75" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5178,17 +5481,17 @@
       <c r="H75" s="36"/>
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
-      <c r="K75" s="44"/>
+      <c r="K75" s="45"/>
       <c r="L75" s="36"/>
-      <c r="M75" s="44"/>
+      <c r="M75" s="45"/>
       <c r="N75" s="36"/>
       <c r="O75" s="36"/>
       <c r="P75" s="36"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
       <c r="V75" s="19"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
@@ -5200,9 +5503,9 @@
       <c r="A76" s="36">
         <v>70.0</v>
       </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="43"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="44"/>
       <c r="E76" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5212,20 +5515,20 @@
         <v>0</v>
       </c>
       <c r="G76" s="36"/>
-      <c r="H76" s="44"/>
+      <c r="H76" s="45"/>
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="36"/>
       <c r="M76" s="36"/>
-      <c r="N76" s="44"/>
+      <c r="N76" s="45"/>
       <c r="O76" s="36"/>
       <c r="P76" s="36"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
       <c r="V76" s="19"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
@@ -5237,9 +5540,9 @@
       <c r="A77" s="36">
         <v>71.0</v>
       </c>
-      <c r="B77" s="45"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="43"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="44"/>
       <c r="E77" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5250,19 +5553,19 @@
       </c>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
       <c r="K77" s="36"/>
       <c r="L77" s="36"/>
       <c r="M77" s="36"/>
       <c r="N77" s="36"/>
-      <c r="O77" s="44"/>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
+      <c r="O77" s="45"/>
+      <c r="P77" s="45"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
       <c r="V77" s="19"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
@@ -5274,9 +5577,9 @@
       <c r="A78" s="36">
         <v>72.0</v>
       </c>
-      <c r="B78" s="45"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="43"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="44"/>
       <c r="E78" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5285,21 +5588,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="44"/>
+      <c r="G78" s="45"/>
       <c r="H78" s="36"/>
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="36"/>
       <c r="M78" s="36"/>
-      <c r="N78" s="44"/>
+      <c r="N78" s="45"/>
       <c r="O78" s="36"/>
       <c r="P78" s="36"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
       <c r="V78" s="19"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
@@ -5311,9 +5614,9 @@
       <c r="A79" s="36">
         <v>73.0</v>
       </c>
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="43"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="44"/>
       <c r="E79" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5323,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="36"/>
-      <c r="H79" s="44"/>
+      <c r="H79" s="45"/>
       <c r="I79" s="36"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
@@ -5331,12 +5634,12 @@
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
-      <c r="P79" s="44"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
+      <c r="P79" s="45"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
       <c r="V79" s="19"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
@@ -5348,9 +5651,9 @@
       <c r="A80" s="36">
         <v>74.0</v>
       </c>
-      <c r="B80" s="45"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="43"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="44"/>
       <c r="E80" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5364,16 +5667,16 @@
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
       <c r="N80" s="36"/>
       <c r="O80" s="36"/>
       <c r="P80" s="36"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
       <c r="V80" s="19"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
@@ -5385,9 +5688,9 @@
       <c r="A81" s="36">
         <v>75.0</v>
       </c>
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="43"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="44"/>
       <c r="E81" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5396,8 +5699,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
@@ -5405,12 +5708,12 @@
       <c r="M81" s="36"/>
       <c r="N81" s="36"/>
       <c r="O81" s="36"/>
-      <c r="P81" s="44"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
+      <c r="P81" s="45"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
       <c r="V81" s="19"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
@@ -5422,9 +5725,9 @@
       <c r="A82" s="36">
         <v>76.0</v>
       </c>
-      <c r="B82" s="45"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="43"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="44"/>
       <c r="E82" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5436,18 +5739,18 @@
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
       <c r="I82" s="36"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="44"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="45"/>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
       <c r="O82" s="36"/>
       <c r="P82" s="36"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="39"/>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40"/>
+      <c r="U82" s="40"/>
       <c r="V82" s="19"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
@@ -5459,9 +5762,9 @@
       <c r="A83" s="36">
         <v>77.0</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="43"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="44"/>
       <c r="E83" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5473,18 +5776,18 @@
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
       <c r="I83" s="36"/>
-      <c r="J83" s="44"/>
+      <c r="J83" s="45"/>
       <c r="K83" s="36"/>
-      <c r="L83" s="44"/>
+      <c r="L83" s="45"/>
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
       <c r="O83" s="36"/>
       <c r="P83" s="36"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
       <c r="V83" s="19"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
@@ -5496,9 +5799,9 @@
       <c r="A84" s="36">
         <v>78.0</v>
       </c>
-      <c r="B84" s="45"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="43"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="44"/>
       <c r="E84" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5512,16 +5815,16 @@
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="44"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="45"/>
       <c r="N84" s="36"/>
       <c r="O84" s="36"/>
       <c r="P84" s="36"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
       <c r="V84" s="19"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
@@ -5533,9 +5836,9 @@
       <c r="A85" s="36">
         <v>79.0</v>
       </c>
-      <c r="B85" s="45"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="43"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="44"/>
       <c r="E85" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5546,19 +5849,19 @@
       </c>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="44"/>
+      <c r="I85" s="45"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
-      <c r="N85" s="44"/>
+      <c r="N85" s="45"/>
       <c r="O85" s="36"/>
       <c r="P85" s="36"/>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="39"/>
-      <c r="S85" s="39"/>
-      <c r="T85" s="39"/>
-      <c r="U85" s="39"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="40"/>
       <c r="V85" s="19"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
@@ -5570,9 +5873,9 @@
       <c r="A86" s="36">
         <v>80.0</v>
       </c>
-      <c r="B86" s="45"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="43"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="44"/>
       <c r="E86" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5586,16 +5889,16 @@
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
-      <c r="L86" s="44"/>
+      <c r="L86" s="45"/>
       <c r="M86" s="36"/>
-      <c r="N86" s="44"/>
+      <c r="N86" s="45"/>
       <c r="O86" s="36"/>
       <c r="P86" s="36"/>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
       <c r="V86" s="19"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
@@ -5607,9 +5910,9 @@
       <c r="A87" s="36">
         <v>81.0</v>
       </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="43"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="44"/>
       <c r="E87" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5618,21 +5921,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
       <c r="V87" s="19"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
@@ -5644,9 +5947,9 @@
       <c r="A88" s="36">
         <v>82.0</v>
       </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="43"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="44"/>
       <c r="E88" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5655,21 +5958,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
       <c r="V88" s="19"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
@@ -5681,9 +5984,9 @@
       <c r="A89" s="36">
         <v>83.0</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="43"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="44"/>
       <c r="E89" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5692,21 +5995,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="43"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
       <c r="V89" s="19"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
@@ -5718,9 +6021,9 @@
       <c r="A90" s="36">
         <v>84.0</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="43"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="44"/>
       <c r="E90" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5729,21 +6032,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="44"/>
+      <c r="P90" s="44"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="40"/>
+      <c r="U90" s="40"/>
       <c r="V90" s="19"/>
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
@@ -5755,9 +6058,9 @@
       <c r="A91" s="36">
         <v>85.0</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="43"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="44"/>
       <c r="E91" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5766,21 +6069,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="40"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
       <c r="V91" s="19"/>
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
@@ -5792,9 +6095,9 @@
       <c r="A92" s="36">
         <v>86.0</v>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="43"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="44"/>
       <c r="E92" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5803,21 +6106,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40"/>
+      <c r="S92" s="40"/>
+      <c r="T92" s="40"/>
+      <c r="U92" s="40"/>
       <c r="V92" s="19"/>
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
@@ -5826,27 +6129,27 @@
       <c r="AA92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="48"/>
-      <c r="N93" s="48"/>
-      <c r="O93" s="48"/>
-      <c r="P93" s="48"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>

--- a/attendance-files/CEDA/CEDA Attendance.xlsx
+++ b/attendance-files/CEDA/CEDA Attendance.xlsx
@@ -2933,20 +2933,20 @@
       <c r="D29" s="35"/>
       <c r="E29" s="36">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J29" s="37" t="s">
         <v>34</v>
